--- a/biology/Botanique/Phyllonomaceae/Phyllonomaceae.xlsx
+++ b/biology/Botanique/Phyllonomaceae/Phyllonomaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Phyllonomacées est une famille de plantes dicotylédones.
 Elle comprend 4 espèces du genre Phyllonoma. Ce sont des arbres ou des arbustes, originaires d'Amérique centrale (du Pérou au Mexique). Ils se reconnaissent par leurs inflorescences épiphylles, qui se développent à la surface supérieure des feuilles, près de l'apex.
@@ -512,11 +524,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Phyllonoma, composé des mots grecs φύλλων / fyllon, feuille, et νομός / nomos, « pâturage ; pacage ; nourriture », en référence aux inflorescences groupées sur la face supérieure du limbe de leurs feuilles et vers l'apex  (épiphyllie).
-Le genre Phyllonoma a été créé en 1820 par le  botaniste et pharmacien allemand Carl Ludwig Willdenow[1].
-La famille des Phyllonomaceae a été créée en 1905 par le  botaniste américain John Kunkel Small[2].
+Le genre Phyllonoma a été créé en 1820 par le  botaniste et pharmacien allemand Carl Ludwig Willdenow.
+La famille des Phyllonomaceae a été créée en 1905 par le  botaniste américain John Kunkel Small.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3] cette famille n'existe pas : le genre Phyllonoma est inclus dans la famille des Grossulariacées.
-La classification phylogénétique APG II (2003)[4] et classification phylogénétique APG III (2009)[5] situent cette famille dans l'ordre des Aquifoliales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas : le genre Phyllonoma est inclus dans la famille des Grossulariacées.
+La classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) situent cette famille dans l'ordre des Aquifoliales.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[6], DELTA Angio           (12 nov. 2015)[7] et GRIN            (12 nov. 2015)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015), DELTA Angio           (12 nov. 2015) et GRIN            (12 nov. 2015) :
 Phyllonoma (en) Willd. ex Schult.</t>
         </is>
       </c>
@@ -608,13 +626,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015) :
 genre Phyllonoma
 Phyllonoma laticuspis
 Phyllonoma ruscifolia
-Selon GRIN            (9 Jul 2010)[9] :
+Selon GRIN            (9 Jul 2010) :
 genre Phyllonoma
 Phyllonoma laticuspis (Turcz.) Engl.</t>
         </is>
